--- a/Excel Files/Individual States/Virginia - Golf Digest Top Courses in each State.xlsx
+++ b/Excel Files/Individual States/Virginia - Golf Digest Top Courses in each State.xlsx
@@ -926,7 +926,7 @@
         <v>45</v>
       </c>
       <c r="G9">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H9" t="s">
         <v>72</v>
